--- a/medicine/Premiers secours et secourisme/Association_française_des_membres_de_l'ordre_de_Malte/Association_française_des_membres_de_l'ordre_de_Malte.xlsx
+++ b/medicine/Premiers secours et secourisme/Association_française_des_membres_de_l'ordre_de_Malte/Association_française_des_membres_de_l'ordre_de_Malte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_fran%C3%A7aise_des_membres_de_l%27ordre_de_Malte</t>
+          <t>Association_française_des_membres_de_l'ordre_de_Malte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Association française des membres de l'ordre de Malte, créé en France au milieu du XIXe siècle, à la suite de la disparition des prieurés lors de la période révolutionnaire, est une association qui sera à l'origine de l'ordre de Malte France[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Association française des membres de l'ordre de Malte, créé en France au milieu du XIXe siècle, à la suite de la disparition des prieurés lors de la période révolutionnaire, est une association qui sera à l'origine de l'ordre de Malte France.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_fran%C3%A7aise_des_membres_de_l%27ordre_de_Malte</t>
+          <t>Association_française_des_membres_de_l'ordre_de_Malte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Objectif</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'association est chargée du recrutement, de la formation, de l’animation et de l'accompagnement spirituel de ses membres. Elle a pour finalité la réalisation des objectifs de l’Ordre, comme le maintient et le développement des traditions de l’Ordre, de pratiquer la charité envers les pauvres et les malades, d’établir des actions d’assistance charitables et sociales dans lesquelles l’ensemble de ses membres puisse exercer la mission qu’ils se sont fixer[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association est chargée du recrutement, de la formation, de l’animation et de l'accompagnement spirituel de ses membres. Elle a pour finalité la réalisation des objectifs de l’Ordre, comme le maintient et le développement des traditions de l’Ordre, de pratiquer la charité envers les pauvres et les malades, d’établir des actions d’assistance charitables et sociales dans lesquelles l’ensemble de ses membres puisse exercer la mission qu’ils se sont fixer. 
 Tous les membres de l’Association française votent à l’assemblée générale de l’ordre de Malte France.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Association_fran%C3%A7aise_des_membres_de_l%27ordre_de_Malte</t>
+          <t>Association_française_des_membres_de_l'ordre_de_Malte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Président</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste des présidents depuis sa création :
 Elzéar de Sabran-Pontevès (1891-1899)
